--- a/学生实训日报.xlsx
+++ b/学生实训日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10610" activeTab="2"/>
+    <workbookView windowWidth="24930" windowHeight="10610" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="3" r:id="rId1"/>
@@ -1412,8 +1412,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1483,7 +1483,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1553,8 +1553,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>44033</v>
+        <v>45868</v>
       </c>
     </row>
     <row r="3" ht="113.25" customHeight="1" spans="1:2">

--- a/学生实训日报.xlsx
+++ b/学生实训日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10610" activeTab="4"/>
+    <workbookView windowWidth="24930" windowHeight="10610" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="3" r:id="rId1"/>
@@ -12,13 +12,17 @@
     <sheet name="7.28" sheetId="2" r:id="rId3"/>
     <sheet name="7.29" sheetId="5" r:id="rId4"/>
     <sheet name="7.30" sheetId="6" r:id="rId5"/>
+    <sheet name="7.31" sheetId="7" r:id="rId6"/>
+    <sheet name="8.1" sheetId="8" r:id="rId7"/>
+    <sheet name="8.2" sheetId="9" r:id="rId8"/>
+    <sheet name="8.3" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>工作日报表</t>
   </si>
@@ -258,28 +262,24 @@
     </r>
   </si>
   <si>
-    <t>1、利用大模型进行web前端开发，设计并优化了（首页，产品介绍，付款，政策）四个页面
-2、下载并配置MySQL8，云数据库部署
-3、IDEA整合maven 本地仓库
-4、VScode中的项目代码推到华为CodeArts远程仓库中
-5、部署本地的Git，进行全局设置：
-6、将本地仓库提交至远程仓库</t>
-  </si>
-  <si>
-    <t>1、利用deepseek+问小白设计并优化了（首页，产品介绍，付款，政策）四个页面
-2、下载并配置MySQL8，云数据库部署
-3、下载maven 本地仓库，配置IDEA后，经测试成功
-4、VScode中的项目代码推到华为CodeArts远程仓库中
-5、成功部署本地的Git，进行全局设置：
-6、成功将本地仓库提交至远程仓库</t>
-  </si>
-  <si>
-    <t>1、由于MySQL8下载时与电脑已有的MySQL5.7冲突，下载失败，关闭5.7进程后解决冲突问题
-2、下载maven本地仓库时有中文路径，需要修改路径
-3、部署git时华为云仓库与我github仓库冲突，对分支修改后，成功完成项目推送</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通过今日学习，我总结出在 IntelliJ IDEA、VSCode 和 MySQL 等工具支持下完成了 Maven 和 SQL 学习，初步掌握了 DeepSeek+问小白 和 CodeArts，并在本地搭建项目结构并尝试与华为 DevCloud 同步，但遇到的 unrelated histories 问题让我意识到需加强 Git 操作技能，同时计划深入优化查询和自动化构建以提升未来开发效率。
+    <t>1、惠农信贷项目:个人中心页面、银行中心页面、管理员中心页面、注册与登录页面、使用DeepSeek实现导航栏逻辑处理
+2、MyBatisPlus环境搭建及查询实现
+3、MyBatisPlus的BaseMapper接口、插入、通过id删除记录、通过id批量删除记录、通过map条件删除记录、修改、根据id查询用户信息、根据多个id查询多个用户信息、通过map条件查询用户信息
+4、IService接口、创建Service接口和实现类、测试查询记录数、测试批量插入</t>
+  </si>
+  <si>
+    <t>1、使用deepseek成功构建四个页面并且完成导航栏的逻辑书写
+2、成功搭建MyBatisPlus环境及成功实现查询
+3、成功编写代码实现信息的增删改查
+4、IService接口、创建Service接口和实现类、测试查询记录数、测试批量插入</t>
+  </si>
+  <si>
+    <t>1、在进行数据的增删改查时，程序报错，根据报错信息提示发现是表名与程序中设定的表名不同，修改后解决
+2、在编写IService接口，实现service层的过程中，缺少了部分解释，与老师教案代码校对后补齐解释后成功解决
+3、MySQL5.7与MySQL8冲突，通过计算机管理界面服务设置中禁用MySQL5.7，成功解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">系统中集成了多种工具和框架，DeepSeek实现智能推理、MyBatisPlus支持数据库操作、IService接口增强服务功能，以及MySQL数据库的多样化使用。这些技术的结合让我感受到开发效率的提升和功能扩展的可能性，但也需要注意各组件间的兼容性与维护复杂度，或许未来可以探索模块化设计以优化系统架构。
 </t>
   </si>
 </sst>
@@ -1412,8 +1412,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1483,8 +1483,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1512,31 +1512,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="130" customHeight="1" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="127" customHeight="1" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="113.25" customHeight="1" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="128" customHeight="1" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="113.25" customHeight="1" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1553,8 +1553,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1577,6 +1577,262 @@
         <v>45868</v>
       </c>
     </row>
+    <row r="3" ht="179" customHeight="1" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="157" customHeight="1" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="135" customHeight="1" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="136" customHeight="1" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.4636363636364" customWidth="1"/>
+    <col min="2" max="2" width="67.1363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35.5" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="21.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="3" ht="113.25" customHeight="1" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" ht="113.25" customHeight="1" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" ht="113.25" customHeight="1" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" ht="113.25" customHeight="1" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.4636363636364" customWidth="1"/>
+    <col min="2" max="2" width="67.1363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35.5" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="21.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="3" ht="113.25" customHeight="1" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" ht="113.25" customHeight="1" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" ht="113.25" customHeight="1" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" ht="113.25" customHeight="1" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.4636363636364" customWidth="1"/>
+    <col min="2" max="2" width="67.1363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35.5" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="21.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="3" ht="113.25" customHeight="1" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" ht="113.25" customHeight="1" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" ht="113.25" customHeight="1" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" ht="113.25" customHeight="1" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.4636363636364" customWidth="1"/>
+    <col min="2" max="2" width="67.1363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35.5" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="21.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45869</v>
+      </c>
+    </row>
     <row r="3" ht="113.25" customHeight="1" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>3</v>

--- a/学生实训日报.xlsx
+++ b/学生实训日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10610" activeTab="8"/>
+    <workbookView windowWidth="24930" windowHeight="10610" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
   <si>
     <t>工作日报表</t>
   </si>
@@ -282,6 +282,34 @@
     <t xml:space="preserve">系统中集成了多种工具和框架，DeepSeek实现智能推理、MyBatisPlus支持数据库操作、IService接口增强服务功能，以及MySQL数据库的多样化使用。这些技术的结合让我感受到开发效率的提升和功能扩展的可能性，但也需要注意各组件间的兼容性与维护复杂度，或许未来可以探索模块化设计以优化系统架构。
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">1、 MyBatis-Plus常用注解@TableName、@TableId、雪花算法、
+@TableField、@TableLogic
+2、 MyBatis-Plus条件构造器和常用接口
+3、 MyBatis-Plus分页插件
+4、 MVC模式
+5、 SpringMVC环境搭建
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、 学习并使用MyBatis-Plus常用注解@TableName、@TableId、雪花算法、
+@TableField、@TableLogic，对数据库内容进行基本增删改查操作
+2、 MyBatis-Plus条件构造器和常用接口，定义并使用接口
+3、 MyBatis-Plus分页插件，尝试使用插件的分表操作
+4、 MVC模式，搭建框架
+5、 SpringMVC环境搭建，成功搭建并运行index.html
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、在学习使用注解复现老师案例时，由于注解的位置出错，导致运行错误，修改后解决
+2、在配置文件的层级结构时，由于把同级关系配成了父子关系出错，调整后解决
+3、MVC模式搭建项目时，由于忘记添加Controller注解出错，修改后解决
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今天涵盖了 MyBatis-Plus、MVC 模式到 SpringMVC 的学习，从字段映射到控制器逻辑，内容很系统。同时，让我好奇的是，这些技术怎么应用到实际项目中，比如优化数据查询或提升页面速度。未来我想深入研究源码，结合案例提升开发效率。
+</t>
+  </si>
 </sst>
 </file>
 
@@ -953,7 +981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,6 +1002,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1440,7 +1474,7 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1448,7 +1482,7 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1456,7 +1490,7 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1464,7 +1498,7 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1511,7 +1545,7 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1519,7 +1553,7 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1527,7 +1561,7 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1535,7 +1569,7 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1553,7 +1587,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1581,7 +1615,7 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1589,7 +1623,7 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1597,7 +1631,7 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1605,7 +1639,7 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1623,8 +1657,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1647,29 +1681,37 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" ht="113.25" customHeight="1" spans="1:2">
+    <row r="3" ht="132" customHeight="1" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" ht="113.25" customHeight="1" spans="1:2">
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="158" customHeight="1" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" ht="113.25" customHeight="1" spans="1:2">
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="126" customHeight="1" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" ht="113.25" customHeight="1" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1809,7 +1851,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/学生实训日报.xlsx
+++ b/学生实训日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10610" activeTab="5"/>
+    <workbookView windowWidth="24930" windowHeight="10610" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="3" r:id="rId1"/>
@@ -15,14 +15,17 @@
     <sheet name="7.31" sheetId="7" r:id="rId6"/>
     <sheet name="8.1" sheetId="8" r:id="rId7"/>
     <sheet name="8.2" sheetId="9" r:id="rId8"/>
-    <sheet name="8.3" sheetId="10" r:id="rId9"/>
+    <sheet name="8.4" sheetId="10" r:id="rId9"/>
+    <sheet name="8.5" sheetId="11" r:id="rId10"/>
+    <sheet name="8.6" sheetId="12" r:id="rId11"/>
+    <sheet name="8.7" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>工作日报表</t>
   </si>
@@ -310,6 +313,91 @@
     <t xml:space="preserve">今天涵盖了 MyBatis-Plus、MVC 模式到 SpringMVC 的学习，从字段映射到控制器逻辑，内容很系统。同时，让我好奇的是，这些技术怎么应用到实际项目中，比如优化数据查询或提升页面速度。未来我想深入研究源码，结合案例提升开发效率。
 </t>
   </si>
+  <si>
+    <t>1、SpringMVC @RequestMapping注解标识的位置
+2、SpringMVC @RequestMapping注解的value属性
+3、SpringMVC @RequestMapping注解的method属性
+4、SpringMVC SpringMVC支持路径中的占位符
+5、SpringMVC 通过ServletAPl获取请求参数
+6、SpringMVC 通过控制器方法的形参获取请求参数
+7、SpringMVC 获取请求参数 @RequestParam注解处理请求参数和控制器方法的形参的映射
+8、SpringMVC 通过实体类型的形参获取请求参数
+9、SpringMVC 使用RESTFuI模拟操作用户资源SpringMVC 模拟get和post请求</t>
+  </si>
+  <si>
+    <t>1. 已完成案例复现并了解SpringMVC @RequestMapping注解标识的位置
+2. 已完成案例复现并了解SpringMVC @RequestMapping注解的value属性
+3. 已完成案例复现并了解SpringMVC @RequestMapping注解的method属性
+4. 已完成案例复现并了解SpringMVC支持路径中的占位符
+5. 已完成案例复现并了解SpringMVC通过ServletAPI获取请求参数
+6. 已了解SpringMVC通过控制器方法的形参获取请求参数
+7. 已了解SpringMVC获取请求参数@RequestParam注解处理请求
+8. 已了解SpringMVC通过实体类的形参获取请求参数
+9. 已完成案例复现并了解SpringMVC使用RESTFul模拟操作用户资源SpringMVC模拟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、在复现案例过程中遇见了Servlet.init()报错，AI后得知是端口被占用，关闭之前运行的项目后成功解决
+2、在尝试RESTful风格的操作时，由于@PathVariable注解忘记添加导致报错
+3、在尝试实体类的传参时，发现仅仅修改实体类的参数与请求参数一直还不够，还需要修改get,set函数名
+</t>
+  </si>
+  <si>
+    <t>本次SpringMVC的学习实践，我掌握了@RequestMapping、多种请求参数获取方式以及RESTful风格等核心功能，在解决实际问题中深化了对框架的理解。例如，遇到Servlet.init()报错，让我意识到编码之外，对开发环境（如端口占用）的细心管理同样重要。当使用实体类接收参数时，揭示了SpringMVC底层依赖反射机制进行数据绑定的工作原理。这些问题连接理论知识与动手实践的关键桥梁，让我认识到，严谨细致的编码习惯和对框架底层原理的探究是提升开发能力的核心。</t>
+  </si>
+  <si>
+    <t>1.《DeepSeek惠农信贷》项目验收
+2.Postman使用
+3.RESTFuI快速开发
+4.属性配置方式
+5.基础配置
+6.三种配置文件格式
+7.配置文件加载优先级
+8.自学：复习数据结构dfs深度搜索，学习dfs剪枝优化</t>
+  </si>
+  <si>
+    <t>1.完成《DeepSeek惠农信贷》项目验收，并从同学项目中吸取经验
+2.学习Postman使用
+3.学习并复现案例RESTFuI快速开发
+4.学习属性配置方式
+5.学习基础配置
+6.学习三种配置文件格式
+7.学习配置文件加载优先级
+8.复习数据结构dfs深度搜索，学习dfs剪枝优化，完成算法网站acwing三题并总结</t>
+  </si>
+  <si>
+    <t>1.在项目验收过程中，老师提出了一些项目的问题（表单验证）等，在后续项目的实现中应该注意
+2.在验收过程中，学习了同学的项目亮点（比如说筛选搜索），可以在后续项目中应用
+3.在学习Postman时，在创建测试Jason数据时出错，修改后成功
+4.自学dfs时，对于不同的题目要求，在回溯过程中需要采取不同方法（比如：在寻求最优解的题中，要提前return true）</t>
+  </si>
+  <si>
+    <t>在今日的“DeepSeek惠农信贷”项目的验收中，从老师提出的问题和同学的项目中获得了宝贵的实践经验。在技术学习方面，我系统地掌握了Postman、RESTFul快速开发以及多种配置知识，并在解决实际操作问题中加深了理解。同时，通过对DFS算法的深入复习和剪枝优化学习，我领悟到针对不同问题需灵活调整策略的重要性。</t>
+  </si>
+  <si>
+    <t>整合MyBatis
+整合Druid
+整合案例分析
+模块创建
+实体类快速开发
+持久层标准开发_基础CRUD
+业务层开发(接口有实现类)
+业务层快速开发(基于MyBatisPlus构建)
+表现层标准开发
+表现层数据一致性处理(R对象)</t>
+  </si>
+  <si>
+    <t>1. 已完成项目基础模块的创建，并成功整合MyBatis及Druid数据源。
+2. 已完成基于MyBatisPlus的代码生成器，快速生成了核心业务的实体类、Mapper接口及XML文件。
+3. 已完成持久层（DAO）的基础CRUD（增删改查）功能开发与单元测试，数据访问正常。
+4. 已开始业务层（Service）的接口定义和初步实现，正在构建核心业务逻辑。</t>
+  </si>
+  <si>
+    <t>1、在进行Service层的CURD时，由于Impl类的函数重写有误导致出错，校对重写后成功
+2.在进行添加操作时，由于id的选取是雪花算法，导致溢出，修改配置文件把id改为自增后成功。</t>
+  </si>
+  <si>
+    <t>今天的工作核心是搭建项目底层框架和数据访问层，整体进展顺利。MyBatisPlus的引入极大地提升了持久层的开发效率，特别是其代码生成器和通用的CRUD方法，减少了大量重复的模板代码。虽然自动化工具提效显著，但在细节上仍需谨慎。今天遇到的问题提醒我，对于框架的默认配置及其在不同环境下的行为需要有更深入的理解，不能完全依赖“开箱即用”。</t>
+  </si>
 </sst>
 </file>
 
@@ -981,7 +1069,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,15 +1088,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1017,6 +1108,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1385,7 +1479,7 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
@@ -1397,6 +1491,54 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1474,7 +1616,7 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1482,7 +1624,7 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1490,7 +1632,7 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1498,7 +1640,7 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1545,7 +1687,7 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1553,7 +1695,7 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1561,7 +1703,7 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1569,7 +1711,7 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1615,7 +1757,7 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1623,7 +1765,7 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1631,7 +1773,7 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1639,7 +1781,7 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1657,7 +1799,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1685,7 +1827,7 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1693,7 +1835,7 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1701,7 +1843,7 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1709,7 +1851,7 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1728,7 +1870,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1748,32 +1890,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="3" ht="113.25" customHeight="1" spans="1:2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="3" ht="197" customHeight="1" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" ht="113.25" customHeight="1" spans="1:2">
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="265" customHeight="1" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" ht="113.25" customHeight="1" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" ht="113.25" customHeight="1" spans="1:2">
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="161" customHeight="1" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1787,13 +1937,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.4636363636364" customWidth="1"/>
     <col min="2" max="2" width="67.1363636363636" customWidth="1"/>
@@ -1810,32 +1960,41 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="3" ht="113.25" customHeight="1" spans="1:2">
+        <v>45871</v>
+      </c>
+    </row>
+    <row r="3" ht="156" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" ht="113.25" customHeight="1" spans="1:2">
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="182" customHeight="1" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" ht="113.25" customHeight="1" spans="1:2">
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="167" customHeight="1" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" ht="113.25" customHeight="1" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1851,8 +2010,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1872,32 +2031,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="3" ht="113.25" customHeight="1" spans="1:2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="3" ht="189" customHeight="1" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" ht="113.25" customHeight="1" spans="1:2">
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="149" customHeight="1" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" ht="113.25" customHeight="1" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" ht="113.25" customHeight="1" spans="1:2">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="124" customHeight="1" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
